--- a/Bridge 　Create 仕様書.xlsx
+++ b/Bridge 　Create 仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Documents\GitHub\unity\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書について" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>岩本</t>
     <rPh sb="0" eb="2">
@@ -55,12 +55,177 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基本操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+クリックするのみ</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">緑ブロック
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主にステージの淵にある
+足場</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>アシバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">青ブロック
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ステージのいたるところにちらべられている足場
+同じ平面上の青ブロックとしか繋げられない</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>アシバ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ヘイメンジョウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ツナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">黄ブロック
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ステージのいたるところにちらべられている足場
+異なる平面上の黄ブロックと繋げられるブロック</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>アシバ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ヘイメンジョウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ツナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">赤ブロック
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ステージのどこかにある足場
+ここにキャラクターを導くとステージクリア</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>アシバ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ミチビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +241,38 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -85,7 +282,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -93,15 +290,143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -118,6 +443,173 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>65942</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>65942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="26176" t="74443" r="66570" b="15299"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="65942" y="315057"/>
+          <a:ext cx="1003789" cy="798467"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>263770</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139212</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="725366" cy="849923"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="32477" t="74443" r="62281" b="14638"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="263770" y="1853712"/>
+          <a:ext cx="725366" cy="849923"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>205153</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>227134</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="864578" cy="842596"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="48839" t="40650" r="44913" b="48525"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="205153" y="3648807"/>
+          <a:ext cx="864578" cy="842596"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>490904</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>234461</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="42176" t="32246" r="47844" b="53898"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="175846" y="5304692"/>
+          <a:ext cx="1003789" cy="783981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,20 +957,52 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:F4"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -505,7 +1029,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -541,20 +1067,159 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="10"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="7"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="14" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="10"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="4"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="7"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="21" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="10"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="4"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="4"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="7"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+    </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:D12"/>
+    <mergeCell ref="A8:B12"/>
+    <mergeCell ref="A15:B19"/>
+    <mergeCell ref="C15:D19"/>
+    <mergeCell ref="A22:B26"/>
+    <mergeCell ref="C22:D26"/>
+    <mergeCell ref="A2:B5"/>
+    <mergeCell ref="C2:D5"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Bridge 　Create 仕様書.xlsx
+++ b/Bridge 　Create 仕様書.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Documents\GitHub\unity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Documents\git\unity\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="仕様書について" sheetId="1" r:id="rId1"/>
-    <sheet name="シーンフロー" sheetId="2" r:id="rId2"/>
-    <sheet name="統一仕様" sheetId="3" r:id="rId3"/>
+    <sheet name="仕様書について " sheetId="13" r:id="rId1"/>
+    <sheet name="シーンフロー" sheetId="14" r:id="rId2"/>
+    <sheet name="統一仕様" sheetId="15" r:id="rId3"/>
     <sheet name="操作方法" sheetId="4" r:id="rId4"/>
     <sheet name="タイトル" sheetId="5" r:id="rId5"/>
     <sheet name="ステージセレクト" sheetId="6" r:id="rId6"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>岩本</t>
     <rPh sb="0" eb="2">
@@ -220,12 +220,30 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ゲームの基本情報</t>
+    <rPh sb="4" eb="6">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーンフロー</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +285,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -376,7 +403,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -408,9 +435,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -427,6 +451,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,6 +485,2644 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1361</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>227239</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="687161" y="284389"/>
+          <a:ext cx="6184447" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4800"/>
+            <a:t>Bridge Create</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4800"/>
+            <a:t>仕様書</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2381250"/>
+          <a:ext cx="6172200" cy="1450522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ハード：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>PC(Windows10)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>コントローラー：マウス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>プレイ人数：１人</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>画面サイズ：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>800</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ｘ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>600</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>（ウィンドウ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>154102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106477</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438525" y="630352"/>
+          <a:ext cx="1362076" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ゲーム起動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3400424" y="1796142"/>
+          <a:ext cx="1362076" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>タイトル画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>117021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>62593</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448050" y="3212646"/>
+          <a:ext cx="1362076" cy="421822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージセレクト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>681718</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>72118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3424918" y="4596493"/>
+          <a:ext cx="1356633" cy="421822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ゲーム画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>665389</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>661308</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3408589" y="5823858"/>
+          <a:ext cx="1367519" cy="435428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クリア画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>126206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="下矢印 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3900488" y="2424112"/>
+          <a:ext cx="390525" cy="559594"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>116681</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="上下矢印 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933825" y="3819526"/>
+          <a:ext cx="381000" cy="583405"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 45000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485840</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>86188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>194704</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>31097</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="下矢印 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3914840" y="5324938"/>
+          <a:ext cx="394664" cy="421159"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502444</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>223837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>207169</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>69056</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="下矢印 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3931444" y="1176337"/>
+          <a:ext cx="390525" cy="559594"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="704850"/>
+          <a:ext cx="1104900" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>267892</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>141686</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>89296</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="下矢印 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1038226" y="804862"/>
+          <a:ext cx="390525" cy="559594"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="1428750"/>
+          <a:ext cx="1104900" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="左右矢印 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895350" y="1581150"/>
+          <a:ext cx="647700" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="704850"/>
+          <a:ext cx="1104900" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>単方向</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="1419225"/>
+          <a:ext cx="1104900" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>双方向</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>273843</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>264318</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>73819</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1645443" y="5836444"/>
+          <a:ext cx="1362075" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ゲームオーバー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="上下矢印 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3165438">
+          <a:off x="2800349" y="5124451"/>
+          <a:ext cx="381000" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 45000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57148</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>176210</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="U ターン矢印 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="3864768" y="4145754"/>
+          <a:ext cx="2976561" cy="990602"/>
+        </a:xfrm>
+        <a:prstGeom prst="uturnArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25828"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 28846"/>
+            <a:gd name="adj4" fmla="val 0"/>
+            <a:gd name="adj5" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4391025" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+            <a:t>ボタンについて</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="1047750"/>
+          <a:ext cx="2028825" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="A3A3FF"/>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="247650" y="990599"/>
+          <a:ext cx="2057400" cy="419101"/>
+          <a:chOff x="247650" y="990599"/>
+          <a:chExt cx="2057400" cy="419101"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="角丸四角形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="247650" y="1028700"/>
+            <a:ext cx="2057400" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="C8C850"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="561975" y="990599"/>
+            <a:ext cx="1504950" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>戻る</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="3366FF"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="1047750"/>
+          <a:ext cx="1323975" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>STAGE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2133600"/>
+          <a:ext cx="3048000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>デザインと配置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>仮</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="257175" y="1590674"/>
+          <a:ext cx="2057400" cy="419101"/>
+          <a:chOff x="247650" y="990599"/>
+          <a:chExt cx="2057400" cy="419101"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="角丸四角形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="247650" y="1028700"/>
+            <a:ext cx="2057400" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0505"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="561975" y="990599"/>
+            <a:ext cx="1504950" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>次へ</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="3366FF"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="2619375"/>
+          <a:ext cx="5010150" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>・ボタンは角の丸い長方形</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>・色は、戻るボタンがライトグリーン、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>STAGE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>選択ボタンと再挑戦ボタンはライトブルー、次へボタンは赤色</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>・戻るボタンは画面右上に配置</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>STAGE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>選択ボタンと次へボタンと再挑戦ボタンは画面中央より少し下</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="グループ化 12"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2752725" y="1590674"/>
+          <a:ext cx="2057400" cy="419101"/>
+          <a:chOff x="247650" y="990599"/>
+          <a:chExt cx="2057400" cy="419101"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="A3A3FF"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="角丸四角形 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="247650" y="1028700"/>
+            <a:ext cx="2057400" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="561975" y="990599"/>
+            <a:ext cx="1504950" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>再挑戦</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="3366FF"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4267200"/>
+          <a:ext cx="2266950" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>基本仕様</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="4772025"/>
+          <a:ext cx="3600450" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・各ボタンの上で左クリックすると効果音を再生し、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　その後ボタンに応じた動作を行う</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6191250"/>
+          <a:ext cx="4391025" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+            <a:t>？ボタンについて</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8429625"/>
+          <a:ext cx="3048000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>デザインと配置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>仮</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="8915400"/>
+          <a:ext cx="5010150" cy="914399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>・ボタンは角の丸い正方形</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>・色はオレンジ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>・画面左上に配置</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10010775"/>
+          <a:ext cx="2266950" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>基本仕様</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="10515600"/>
+          <a:ext cx="3600450" cy="1571626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・ボタンの上で左クリックすると効果音を再生し、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　他のボタンのクリック判定をすべて停止させ、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　？ボタンを押したシーンに対応した説明書を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　画面に表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・ゲーム画面シーンでクリックした場合、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　残り制限時間とキャラクターの動きも停止させる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="角丸四角形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="7258050"/>
+          <a:ext cx="962025" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="7143750"/>
+          <a:ext cx="866775" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400"/>
+            <a:t>？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -875,22 +3552,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B8:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>1</v>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="18" t="s">
+        <v>8</v>
       </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:J10"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -898,7 +3609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -915,22 +3626,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="L1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M33" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -939,19 +3671,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1029,7 +3756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -1081,9 +3808,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="10"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3"/>
@@ -1108,113 +3835,113 @@
     </row>
     <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="10"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="14" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="10"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="7"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="21" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="10"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A2:B5"/>
+    <mergeCell ref="C2:D5"/>
     <mergeCell ref="C8:D12"/>
     <mergeCell ref="A8:B12"/>
     <mergeCell ref="A15:B19"/>
     <mergeCell ref="C15:D19"/>
     <mergeCell ref="A22:B26"/>
     <mergeCell ref="C22:D26"/>
-    <mergeCell ref="A2:B5"/>
-    <mergeCell ref="C2:D5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
